--- a/ExcelDataProvider/DataSheets.xlsx
+++ b/ExcelDataProvider/DataSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>123qwe</t>
-  </si>
-  <si>
     <t>Vessel Name</t>
   </si>
   <si>
@@ -248,10 +242,16 @@
     <t>Russel</t>
   </si>
   <si>
-    <t>clark.russel@yopmail.com</t>
-  </si>
-  <si>
     <t>Terminal Or Charterer</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>clark.russel57@yopmail.com</t>
+  </si>
+  <si>
+    <t>melvin_armstrong46@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -296,13 +296,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,17 +608,21 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Admin@123"/>
-    <hyperlink ref="A2" r:id="rId2" display="khalid.bahringer@yopmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -626,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,36 +646,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -697,51 +704,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -779,51 +786,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1458745</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -863,30 +870,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -895,10 +902,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -924,30 +931,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>7856458</v>
@@ -956,16 +963,16 @@
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -990,30 +997,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>7856458</v>
@@ -1047,51 +1054,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>1987065</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1133,51 +1140,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>8521458</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1219,51 +1226,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>4568256</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1306,10 +1313,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelDataProvider/DataSheets.xlsx
+++ b/ExcelDataProvider/DataSheets.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Request Service" sheetId="17" r:id="rId2"/>
     <sheet name="Inspection Question" sheetId="18" r:id="rId3"/>
     <sheet name="Create Vessel" sheetId="15" r:id="rId4"/>
-    <sheet name="Edit Vessel" sheetId="19" r:id="rId5"/>
-    <sheet name="Request Inspection" sheetId="20" r:id="rId6"/>
-    <sheet name="UserVet Service Request" sheetId="21" r:id="rId7"/>
-    <sheet name="Preliminary Request" sheetId="22" r:id="rId8"/>
-    <sheet name="Reset Password" sheetId="23" r:id="rId9"/>
-    <sheet name="Add User" sheetId="24" r:id="rId10"/>
-    <sheet name="Add Inspection" sheetId="16" r:id="rId11"/>
+    <sheet name="Add New Vessel" sheetId="25" r:id="rId5"/>
+    <sheet name="Edit Vessel" sheetId="19" r:id="rId6"/>
+    <sheet name="Request InpectionAudit" sheetId="20" r:id="rId7"/>
+    <sheet name="UserVet Service Request" sheetId="21" r:id="rId8"/>
+    <sheet name="Preliminary Request" sheetId="22" r:id="rId9"/>
+    <sheet name="Reset Password" sheetId="23" r:id="rId10"/>
+    <sheet name="Add User" sheetId="24" r:id="rId11"/>
+    <sheet name="Add Inspection" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
   <si>
     <t>Username</t>
   </si>
@@ -58,18 +59,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Transportation Boat</t>
-  </si>
-  <si>
-    <t>Commutate People</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>Inspection Name</t>
   </si>
   <si>
@@ -133,15 +122,6 @@
     <t>The Curator</t>
   </si>
   <si>
-    <t>alena.curator@yopmail.com</t>
-  </si>
-  <si>
-    <t>Curator</t>
-  </si>
-  <si>
-    <t>Yansghung</t>
-  </si>
-  <si>
     <t>Inspection Type</t>
   </si>
   <si>
@@ -170,21 +150,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Utility Support</t>
-  </si>
-  <si>
-    <t>Tech Giant</t>
-  </si>
-  <si>
-    <t>tech.giant21@yopmail.com</t>
-  </si>
-  <si>
-    <t>Giant</t>
-  </si>
-  <si>
-    <t>Seaport</t>
   </si>
   <si>
     <t>Work Boat</t>
@@ -245,20 +210,107 @@
     <t>Terminal Or Charterer</t>
   </si>
   <si>
-    <t>Admin@123</t>
-  </si>
-  <si>
     <t>clark.russel57@yopmail.com</t>
   </si>
   <si>
     <t>melvin_armstrong46@yopmail.com</t>
+  </si>
+  <si>
+    <t>End User Name</t>
+  </si>
+  <si>
+    <t>End User email</t>
+  </si>
+  <si>
+    <t>June Hessel</t>
+  </si>
+  <si>
+    <t>june77@yopmail.com</t>
+  </si>
+  <si>
+    <t>Work Scope</t>
+  </si>
+  <si>
+    <t>This is a test Work Scope</t>
+  </si>
+  <si>
+    <t>VTO Name</t>
+  </si>
+  <si>
+    <t>Pipelay</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>FromYear</t>
+  </si>
+  <si>
+    <t>FromMonth</t>
+  </si>
+  <si>
+    <t>FromDay</t>
+  </si>
+  <si>
+    <t>ToYear</t>
+  </si>
+  <si>
+    <t>ToMonth</t>
+  </si>
+  <si>
+    <t>ToDay</t>
+  </si>
+  <si>
+    <t>Reqeuestor Email</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Jack-up Drilling Rig</t>
+  </si>
+  <si>
+    <t>IMO Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of Build </t>
+  </si>
+  <si>
+    <t>Flat Top Barge</t>
+  </si>
+  <si>
+    <t>Platform Supply vessel</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>SUP</t>
+  </si>
+  <si>
+    <t>Ronaldo Ledner</t>
+  </si>
+  <si>
+    <t>ronaldo.ledner42@yopmail.com</t>
+  </si>
+  <si>
+    <t>Contract Holder Email</t>
+  </si>
+  <si>
+    <t>shahbaz.khan42@yopmail.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>123qwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +325,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -306,12 +364,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -590,7 +672,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,11 +690,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
+      <c r="A2" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,20 +703,56 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" display="Admin@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,36 +764,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -704,51 +822,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -768,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="D2" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,55 +900,68 @@
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>1458745</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>7856458</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -839,12 +970,25 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>2025</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,30 +1014,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -902,10 +1046,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -916,71 +1060,275 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
         <v>7856458</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2">
+        <v>2025</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2">
+        <v>2025</v>
+      </c>
+      <c r="K2">
         <v>12</v>
       </c>
+      <c r="L2">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:L1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>5489652</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2">
+        <v>2023</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2">
+        <v>2025</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>2025</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>31</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N1:R1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1020,7 +1368,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>7856458</v>
@@ -1031,94 +1379,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>1987065</v>
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>2025</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1143,48 +1472,48 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>8521458</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1204,7 +1533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1229,48 +1558,48 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>4568256</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1288,41 +1617,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ExcelDataProvider/DataSheets.xlsx
+++ b/ExcelDataProvider/DataSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>Username</t>
   </si>
@@ -62,15 +62,6 @@
     <t>Inspection Name</t>
   </si>
   <si>
-    <t>Marvet</t>
-  </si>
-  <si>
-    <t>Sundarban (SBN001)</t>
-  </si>
-  <si>
-    <t>admin (admin@abp.io)</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -95,12 +86,6 @@
     <t>Inspector</t>
   </si>
   <si>
-    <t>Physical BVIQ</t>
-  </si>
-  <si>
-    <t>Super Boat</t>
-  </si>
-  <si>
     <t>Vessel IMO</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
   </si>
   <si>
     <t>Dredger</t>
-  </si>
-  <si>
-    <t>The Curator</t>
   </si>
   <si>
     <t>Inspection Type</t>
@@ -198,9 +180,6 @@
     <t>Clientname</t>
   </si>
   <si>
-    <t>Koch Shipping (Cr)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clark </t>
   </si>
   <si>
@@ -264,9 +243,6 @@
     <t>Reqeuestor Email</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>Jack-up Drilling Rig</t>
   </si>
   <si>
@@ -304,13 +280,43 @@
   </si>
   <si>
     <t>123qwe</t>
+  </si>
+  <si>
+    <t>Bourbon Offshore Asia Pte Ltd</t>
+  </si>
+  <si>
+    <t>Contract Holder Name</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>axel.hartmann78@yopmail.com</t>
+  </si>
+  <si>
+    <t>Full Term Inspection</t>
+  </si>
+  <si>
+    <t>Vallianz Offshore marine Pte Ltd</t>
+  </si>
+  <si>
+    <t>Nautical Maimunah</t>
+  </si>
+  <si>
+    <t>Viddacom (VD)</t>
+  </si>
+  <si>
+    <t>Nora (nora.brakus@yopmail.com)</t>
+  </si>
+  <si>
+    <t>LDT KB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,12 +331,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,35 +354,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -671,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -690,23 +674,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>89</v>
+      <c r="A2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Admin@123"/>
+    <hyperlink ref="A2" r:id="rId2" display="nora.brakus@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -732,11 +717,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -751,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,36 +749,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -809,12 +794,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -825,57 +812,57 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -905,13 +892,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -920,48 +907,48 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E2">
         <v>7856458</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -981,8 +968,8 @@
       <c r="L2">
         <v>31</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>60</v>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1014,30 +1001,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1046,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1060,118 +1047,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="B2">
+        <v>7856458</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2">
-        <v>7856458</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2">
-        <v>2025</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>2025</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>31</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>77</v>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:L1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1199,19 +1144,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1220,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1229,45 +1174,45 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>5489652</v>
@@ -1276,22 +1221,22 @@
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>2023</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M2">
         <v>2025</v>
@@ -1311,8 +1256,8 @@
       <c r="R2">
         <v>31</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>60</v>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1368,7 +1313,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>7856458</v>
@@ -1399,42 +1344,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1472,48 +1417,48 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>8521458</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>2025</v>
@@ -1558,48 +1503,48 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>4568256</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>2025</v>

--- a/ExcelDataProvider/DataSheets.xlsx
+++ b/ExcelDataProvider/DataSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>Username</t>
   </si>
@@ -294,22 +294,28 @@
     <t>axel.hartmann78@yopmail.com</t>
   </si>
   <si>
-    <t>Full Term Inspection</t>
-  </si>
-  <si>
     <t>Vallianz Offshore marine Pte Ltd</t>
   </si>
   <si>
-    <t>Nautical Maimunah</t>
-  </si>
-  <si>
     <t>Viddacom (VD)</t>
   </si>
   <si>
-    <t>Nora (nora.brakus@yopmail.com)</t>
-  </si>
-  <si>
     <t>LDT KB</t>
+  </si>
+  <si>
+    <t>Ardella  (ardella4@yopmail.com)</t>
+  </si>
+  <si>
+    <t>BELAIT SHIPPING COMPANY (B) SDN BHD</t>
+  </si>
+  <si>
+    <t>OMBAK BIRU SATU</t>
+  </si>
+  <si>
+    <t>NOBLE VIKING</t>
+  </si>
+  <si>
+    <t>OVID</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -778,7 +784,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -793,16 +799,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -838,31 +844,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
       </c>
       <c r="G2">
         <v>2026</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +882,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:M2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +948,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>7856458</v>

--- a/ExcelDataProvider/DataSheets.xlsx
+++ b/ExcelDataProvider/DataSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -279,43 +279,43 @@
     <t>admin</t>
   </si>
   <si>
+    <t>Bourbon Offshore Asia Pte Ltd</t>
+  </si>
+  <si>
+    <t>Contract Holder Name</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>axel.hartmann78@yopmail.com</t>
+  </si>
+  <si>
+    <t>Vallianz Offshore marine Pte Ltd</t>
+  </si>
+  <si>
+    <t>Viddacom (VD)</t>
+  </si>
+  <si>
+    <t>LDT KB</t>
+  </si>
+  <si>
+    <t>Ardella  (ardella4@yopmail.com)</t>
+  </si>
+  <si>
+    <t>BELAIT SHIPPING COMPANY (B) SDN BHD</t>
+  </si>
+  <si>
+    <t>OMBAK BIRU SATU</t>
+  </si>
+  <si>
+    <t>NOBLE VIKING</t>
+  </si>
+  <si>
+    <t>OVID</t>
+  </si>
+  <si>
     <t>123qwe</t>
-  </si>
-  <si>
-    <t>Bourbon Offshore Asia Pte Ltd</t>
-  </si>
-  <si>
-    <t>Contract Holder Name</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>axel.hartmann78@yopmail.com</t>
-  </si>
-  <si>
-    <t>Vallianz Offshore marine Pte Ltd</t>
-  </si>
-  <si>
-    <t>Viddacom (VD)</t>
-  </si>
-  <si>
-    <t>LDT KB</t>
-  </si>
-  <si>
-    <t>Ardella  (ardella4@yopmail.com)</t>
-  </si>
-  <si>
-    <t>BELAIT SHIPPING COMPANY (B) SDN BHD</t>
-  </si>
-  <si>
-    <t>OMBAK BIRU SATU</t>
-  </si>
-  <si>
-    <t>NOBLE VIKING</t>
-  </si>
-  <si>
-    <t>OVID</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -684,7 +684,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -844,22 +844,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2">
         <v>2026</v>
@@ -948,7 +948,7 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>7856458</v>
@@ -1091,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1111,13 +1111,13 @@
         <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
